--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mmp13-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Mmp13</t>
+  </si>
+  <si>
+    <t>Lrp1</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Mmp13</t>
-  </si>
-  <si>
-    <t>Lrp1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H2">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I2">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J2">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N2">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O2">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P2">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q2">
-        <v>0.145617635612</v>
+        <v>1.130376663009</v>
       </c>
       <c r="R2">
-        <v>0.582470542448</v>
+        <v>4.521506652036001</v>
       </c>
       <c r="S2">
-        <v>2.286167001671711E-05</v>
+        <v>0.0003084529310554775</v>
       </c>
       <c r="T2">
-        <v>1.053902721188511E-05</v>
+        <v>0.0001413348036108019</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H3">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I3">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J3">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P3">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q3">
-        <v>10.07506956763333</v>
+        <v>14.57198541095</v>
       </c>
       <c r="R3">
-        <v>60.4504174058</v>
+        <v>87.43191246569999</v>
       </c>
       <c r="S3">
-        <v>0.001581765250360381</v>
+        <v>0.003976348555657854</v>
       </c>
       <c r="T3">
-        <v>0.001093769637400015</v>
+        <v>0.002732976666548126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H4">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I4">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J4">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N4">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O4">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P4">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q4">
-        <v>13.44028475614734</v>
+        <v>15.65955935544</v>
       </c>
       <c r="R4">
-        <v>80.64170853688401</v>
+        <v>93.95735613264</v>
       </c>
       <c r="S4">
-        <v>0.002110097130298635</v>
+        <v>0.004273121641917897</v>
       </c>
       <c r="T4">
-        <v>0.001459104106984091</v>
+        <v>0.002936951219748225</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H5">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I5">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J5">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N5">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O5">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P5">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q5">
-        <v>2.161014889589</v>
+        <v>3.386962058799</v>
       </c>
       <c r="R5">
-        <v>8.644059558356</v>
+        <v>13.547848235196</v>
       </c>
       <c r="S5">
-        <v>0.0003392749037529681</v>
+        <v>0.0009242214640465625</v>
       </c>
       <c r="T5">
-        <v>0.0001564027230008845</v>
+        <v>0.0004234832804698325</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H6">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I6">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J6">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N6">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O6">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P6">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q6">
-        <v>0.4510304572706667</v>
+        <v>5.433689239891</v>
       </c>
       <c r="R6">
-        <v>2.706182743624</v>
+        <v>32.602135439346</v>
       </c>
       <c r="S6">
-        <v>7.081085637927551E-05</v>
+        <v>0.001482724676947478</v>
       </c>
       <c r="T6">
-        <v>4.896476559230187E-05</v>
+        <v>0.001019088716266261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.07212200000000001</v>
+        <v>0.104313</v>
       </c>
       <c r="H7">
-        <v>0.144244</v>
+        <v>0.208626</v>
       </c>
       <c r="I7">
-        <v>0.005750852347651393</v>
+        <v>0.01670145836955801</v>
       </c>
       <c r="J7">
-        <v>0.003893167052423371</v>
+        <v>0.0111966389796378</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N7">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O7">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P7">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q7">
-        <v>10.35709418631867</v>
+        <v>21.02267733896</v>
       </c>
       <c r="R7">
-        <v>62.14256511791201</v>
+        <v>126.13606403376</v>
       </c>
       <c r="S7">
-        <v>0.001626042536843415</v>
+        <v>0.005736589099932743</v>
       </c>
       <c r="T7">
-        <v>0.001124386792234193</v>
+        <v>0.003942804292994558</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H8">
         <v>1.021675</v>
       </c>
       <c r="I8">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J8">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N8">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O8">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P8">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q8">
-        <v>0.6876029406833334</v>
+        <v>3.690423939425</v>
       </c>
       <c r="R8">
-        <v>4.1256176441</v>
+        <v>22.14254363655</v>
       </c>
       <c r="S8">
-        <v>0.0001079522508819752</v>
+        <v>0.001007029000335864</v>
       </c>
       <c r="T8">
-        <v>7.46475460102515E-05</v>
+        <v>0.0006921392131329075</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H9">
         <v>1.021675</v>
       </c>
       <c r="I9">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J9">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P9">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q9">
-        <v>47.57423393930555</v>
+        <v>47.57423393930554</v>
       </c>
       <c r="R9">
-        <v>428.16810545375</v>
+        <v>428.1681054537499</v>
       </c>
       <c r="S9">
-        <v>0.00746905711693123</v>
+        <v>0.01298187797175085</v>
       </c>
       <c r="T9">
-        <v>0.007747130516975825</v>
+        <v>0.01338382529404559</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H10">
         <v>1.021675</v>
       </c>
       <c r="I10">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J10">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N10">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O10">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P10">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q10">
-        <v>63.46469837329723</v>
+        <v>51.12491669133333</v>
       </c>
       <c r="R10">
-        <v>571.1822853596751</v>
+        <v>460.1242502219999</v>
       </c>
       <c r="S10">
-        <v>0.009963827429438349</v>
+        <v>0.01395077492260941</v>
       </c>
       <c r="T10">
-        <v>0.01033478126301941</v>
+        <v>0.01438272141265359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H11">
         <v>1.021675</v>
       </c>
       <c r="I11">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J11">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N11">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O11">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P11">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q11">
-        <v>10.20425985284583</v>
+        <v>11.05766446950833</v>
       </c>
       <c r="R11">
-        <v>61.225559117075</v>
+        <v>66.34598681704999</v>
       </c>
       <c r="S11">
-        <v>0.001602047860069575</v>
+        <v>0.003017373878870233</v>
       </c>
       <c r="T11">
-        <v>0.001107794792309757</v>
+        <v>0.002073865580387948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H12">
         <v>1.021675</v>
       </c>
       <c r="I12">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J12">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N12">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O12">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P12">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q12">
-        <v>2.129754871061111</v>
+        <v>17.73976543085277</v>
       </c>
       <c r="R12">
-        <v>19.16779383955</v>
+        <v>159.657888877675</v>
       </c>
       <c r="S12">
-        <v>0.0003343671449825587</v>
+        <v>0.004840760449545485</v>
       </c>
       <c r="T12">
-        <v>0.0003468156518573737</v>
+        <v>0.004990640975675767</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3405583333333334</v>
+        <v>0.3405583333333333</v>
       </c>
       <c r="H13">
         <v>1.021675</v>
       </c>
       <c r="I13">
-        <v>0.02715538519123493</v>
+        <v>0.05452648113440058</v>
       </c>
       <c r="J13">
-        <v>0.02757516048005219</v>
+        <v>0.05483173779644653</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N13">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O13">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P13">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q13">
-        <v>48.90594734296111</v>
+        <v>68.63428294422221</v>
       </c>
       <c r="R13">
-        <v>440.1535260866501</v>
+        <v>617.7085464979999</v>
       </c>
       <c r="S13">
-        <v>0.007678133388931238</v>
+        <v>0.01872866491128873</v>
       </c>
       <c r="T13">
-        <v>0.007963990709879572</v>
+        <v>0.01930854532055072</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H14">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I14">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J14">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N14">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O14">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P14">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q14">
-        <v>9.625236472119999</v>
+        <v>16.239216270464</v>
       </c>
       <c r="R14">
-        <v>57.75141883272</v>
+        <v>97.43529762278402</v>
       </c>
       <c r="S14">
-        <v>0.001511142377320292</v>
+        <v>0.004431296240082178</v>
       </c>
       <c r="T14">
-        <v>0.001044934859787088</v>
+        <v>0.003045665906092437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H15">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I15">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J15">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P15">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q15">
-        <v>665.9559239096666</v>
+        <v>209.3440446200889</v>
       </c>
       <c r="R15">
-        <v>5993.603315187</v>
+        <v>1884.0964015808</v>
       </c>
       <c r="S15">
-        <v>0.1045537136632791</v>
+        <v>0.05712501529373924</v>
       </c>
       <c r="T15">
-        <v>0.1084462540723933</v>
+        <v>0.05889373065089556</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H16">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I16">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J16">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N16">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O16">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P16">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q16">
-        <v>888.3945854968067</v>
+        <v>224.9683485115733</v>
       </c>
       <c r="R16">
-        <v>7995.551269471261</v>
+        <v>2024.71513660416</v>
       </c>
       <c r="S16">
-        <v>0.1394761271387684</v>
+        <v>0.06138851655729242</v>
       </c>
       <c r="T16">
-        <v>0.1446688308885645</v>
+        <v>0.06328923923420744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,14 +1458,14 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H17">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I17">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J17">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N17">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O17">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P17">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q17">
-        <v>142.84175982289</v>
+        <v>48.65777149563733</v>
       </c>
       <c r="R17">
-        <v>857.0505589373399</v>
+        <v>291.946628973824</v>
       </c>
       <c r="S17">
-        <v>0.02242586321329448</v>
+        <v>0.01327754962359613</v>
       </c>
       <c r="T17">
-        <v>0.01550718620831944</v>
+        <v>0.009125767724409069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H18">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I18">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J18">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N18">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O18">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P18">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q18">
-        <v>29.81283681137333</v>
+        <v>78.06146181238043</v>
       </c>
       <c r="R18">
-        <v>268.31553130236</v>
+        <v>702.5531563114239</v>
       </c>
       <c r="S18">
-        <v>0.004680554210205066</v>
+        <v>0.02130111801353798</v>
       </c>
       <c r="T18">
-        <v>0.004854811496358947</v>
+        <v>0.0219606471946054</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.76722</v>
+        <v>1.498581333333333</v>
       </c>
       <c r="H19">
-        <v>14.30166</v>
+        <v>4.495744</v>
       </c>
       <c r="I19">
-        <v>0.3801278157673202</v>
+        <v>0.2399364772565587</v>
       </c>
       <c r="J19">
-        <v>0.3860039343540198</v>
+        <v>0.2412797183135025</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N19">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O19">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P19">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q19">
-        <v>684.5975783658533</v>
+        <v>302.0159695997156</v>
       </c>
       <c r="R19">
-        <v>6161.37820529268</v>
+        <v>2718.14372639744</v>
       </c>
       <c r="S19">
-        <v>0.1074804151644528</v>
+        <v>0.08241298152831072</v>
       </c>
       <c r="T19">
-        <v>0.1114819168285964</v>
+        <v>0.08496466760329262</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H20">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I20">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J20">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N20">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O20">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P20">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q20">
-        <v>1.010765722813</v>
+        <v>6.751065614738001</v>
       </c>
       <c r="R20">
-        <v>4.043062891252</v>
+        <v>40.50639368842801</v>
       </c>
       <c r="S20">
-        <v>0.0001586881446195868</v>
+        <v>0.001842205385831824</v>
       </c>
       <c r="T20">
-        <v>7.315382791924057E-05</v>
+        <v>0.001266162727938902</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H21">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I21">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J21">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P21">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q21">
-        <v>69.93339049299165</v>
+        <v>87.02977765345554</v>
       </c>
       <c r="R21">
-        <v>419.6003429579499</v>
+        <v>783.2679988810999</v>
       </c>
       <c r="S21">
-        <v>0.01097939881994103</v>
+        <v>0.02374835829930887</v>
       </c>
       <c r="T21">
-        <v>0.007592108287510431</v>
+        <v>0.02448365938964997</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H22">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I22">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J22">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N22">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O22">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P22">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q22">
-        <v>93.29212824576517</v>
+        <v>93.52520815941334</v>
       </c>
       <c r="R22">
-        <v>559.752769474591</v>
+        <v>841.72687343472</v>
       </c>
       <c r="S22">
-        <v>0.01464667272029362</v>
+        <v>0.02552080693841696</v>
       </c>
       <c r="T22">
-        <v>0.01012797942472331</v>
+        <v>0.02631098691345754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H23">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I23">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J23">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N23">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O23">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P23">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q23">
-        <v>15.00010467622975</v>
+        <v>20.22830428285133</v>
       </c>
       <c r="R23">
-        <v>60.000418704919</v>
+        <v>121.369825697108</v>
       </c>
       <c r="S23">
-        <v>0.002354985657354815</v>
+        <v>0.005519823569002577</v>
       </c>
       <c r="T23">
-        <v>0.001085627511389718</v>
+        <v>0.003793819582561886</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H24">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I24">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J24">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N24">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O24">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P24">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q24">
-        <v>3.130706828454333</v>
+        <v>32.45218500083978</v>
       </c>
       <c r="R24">
-        <v>18.784240970726</v>
+        <v>292.0696650075579</v>
       </c>
       <c r="S24">
-        <v>0.0004915145485668616</v>
+        <v>0.00885543015017458</v>
       </c>
       <c r="T24">
-        <v>0.000339875774512257</v>
+        <v>0.009129613626893148</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.5006155</v>
+        <v>0.6229993333333333</v>
       </c>
       <c r="H25">
-        <v>1.001231</v>
+        <v>1.868998</v>
       </c>
       <c r="I25">
-        <v>0.03991799760746617</v>
+        <v>0.09974784954827358</v>
       </c>
       <c r="J25">
-        <v>0.02702337387388664</v>
+        <v>0.1003062698784672</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N25">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O25">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P25">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q25">
-        <v>71.89098866685633</v>
+        <v>125.5559131369422</v>
       </c>
       <c r="R25">
-        <v>431.345932001138</v>
+        <v>1130.00321823248</v>
       </c>
       <c r="S25">
-        <v>0.01128673771669026</v>
+        <v>0.03426122520553877</v>
       </c>
       <c r="T25">
-        <v>0.007804629047831681</v>
+        <v>0.03532202763796575</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H26">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I26">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J26">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.019046</v>
+        <v>10.836393</v>
       </c>
       <c r="N26">
-        <v>4.038092</v>
+        <v>21.672786</v>
       </c>
       <c r="O26">
-        <v>0.003975353327590414</v>
+        <v>0.01846862257356514</v>
       </c>
       <c r="P26">
-        <v>0.002707057536954368</v>
+        <v>0.01262296693390161</v>
       </c>
       <c r="Q26">
-        <v>1.017803780661333</v>
+        <v>39.87023240097001</v>
       </c>
       <c r="R26">
-        <v>6.106822683967999</v>
+        <v>239.2213944058201</v>
       </c>
       <c r="S26">
-        <v>0.0001597931052612765</v>
+        <v>0.0108796390162598</v>
       </c>
       <c r="T26">
-        <v>0.0001104948074695841</v>
+        <v>0.00747766428312656</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H27">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I27">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J27">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.2750488370661026</v>
+        <v>0.2380839126543345</v>
       </c>
       <c r="P27">
-        <v>0.2809459811695414</v>
+        <v>0.2440890227431923</v>
       </c>
       <c r="Q27">
-        <v>70.4203433414222</v>
+        <v>513.9777420135</v>
       </c>
       <c r="R27">
-        <v>633.7830900727998</v>
+        <v>4625.7996781215</v>
       </c>
       <c r="S27">
-        <v>0.01105584941802781</v>
+        <v>0.1402523125338777</v>
       </c>
       <c r="T27">
-        <v>0.01146745928925011</v>
+        <v>0.1445948307420531</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H28">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I28">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J28">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>186.3548536666667</v>
+        <v>150.12088</v>
       </c>
       <c r="N28">
-        <v>559.064561</v>
+        <v>450.36264</v>
       </c>
       <c r="O28">
-        <v>0.3669190239530987</v>
+        <v>0.2558532043948076</v>
       </c>
       <c r="P28">
-        <v>0.3747858972750336</v>
+        <v>0.2623065033256284</v>
       </c>
       <c r="Q28">
-        <v>93.94173020650489</v>
+        <v>552.3382525752</v>
       </c>
       <c r="R28">
-        <v>845.475571858544</v>
+        <v>4971.044273176801</v>
       </c>
       <c r="S28">
-        <v>0.01474865889529384</v>
+        <v>0.150719984334571</v>
       </c>
       <c r="T28">
-        <v>0.01529775226289113</v>
+        <v>0.1553866045455616</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H29">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I29">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J29">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>29.9633245</v>
+        <v>32.469223</v>
       </c>
       <c r="N29">
-        <v>59.926649</v>
+        <v>64.938446</v>
       </c>
       <c r="O29">
-        <v>0.05899558591371686</v>
+        <v>0.05533777012737728</v>
       </c>
       <c r="P29">
-        <v>0.04017364805949665</v>
+        <v>0.03782235733776705</v>
       </c>
       <c r="Q29">
-        <v>15.10455183154933</v>
+        <v>119.46368749167</v>
       </c>
       <c r="R29">
-        <v>90.62731098929599</v>
+        <v>716.7821249500201</v>
       </c>
       <c r="S29">
-        <v>0.002371383646438112</v>
+        <v>0.03259880159186178</v>
       </c>
       <c r="T29">
-        <v>0.00163978025848652</v>
+        <v>0.02240542116993832</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H30">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I30">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J30">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.253715333333333</v>
+        <v>52.09024033333333</v>
       </c>
       <c r="N30">
-        <v>18.761146</v>
+        <v>156.270721</v>
       </c>
       <c r="O30">
-        <v>0.01231310631861278</v>
+        <v>0.08877815602319267</v>
       </c>
       <c r="P30">
-        <v>0.0125771036621259</v>
+        <v>0.09101737745760805</v>
       </c>
       <c r="Q30">
-        <v>3.152506237820444</v>
+        <v>191.65510035603</v>
       </c>
       <c r="R30">
-        <v>28.372556140384</v>
+        <v>1724.89590320427</v>
       </c>
       <c r="S30">
-        <v>0.0004949370111098964</v>
+        <v>0.05229812273298715</v>
       </c>
       <c r="T30">
-        <v>0.000513363542776826</v>
+        <v>0.05391738694416746</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.5041013333333333</v>
+        <v>3.67929</v>
       </c>
       <c r="H31">
-        <v>1.512304</v>
+        <v>11.03787</v>
       </c>
       <c r="I31">
-        <v>0.04019595042087292</v>
+        <v>0.5890877336912093</v>
       </c>
       <c r="J31">
-        <v>0.04081731029400234</v>
+        <v>0.592385635031946</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>143.6051993333333</v>
+        <v>201.5345866666667</v>
       </c>
       <c r="N31">
-        <v>430.815598</v>
+        <v>604.60376</v>
       </c>
       <c r="O31">
-        <v>0.2827480934208786</v>
+        <v>0.3434783342267227</v>
       </c>
       <c r="P31">
-        <v>0.2888103122968479</v>
+        <v>0.3521417722019025</v>
       </c>
       <c r="Q31">
-        <v>72.39157245753243</v>
+        <v>741.5041893768</v>
       </c>
       <c r="R31">
-        <v>651.524152117792</v>
+        <v>6673.5377043912</v>
       </c>
       <c r="S31">
-        <v>0.01136532834474198</v>
+        <v>0.2023388734816518</v>
       </c>
       <c r="T31">
-        <v>0.01178846013312816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H32">
-        <v>19.069441</v>
-      </c>
-      <c r="I32">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J32">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>2.019046</v>
-      </c>
-      <c r="N32">
-        <v>4.038092</v>
-      </c>
-      <c r="O32">
-        <v>0.003975353327590414</v>
-      </c>
-      <c r="P32">
-        <v>0.002707057536954368</v>
-      </c>
-      <c r="Q32">
-        <v>12.83402619109533</v>
-      </c>
-      <c r="R32">
-        <v>77.00415714657198</v>
-      </c>
-      <c r="S32">
-        <v>0.002014915779490566</v>
-      </c>
-      <c r="T32">
-        <v>0.001393287468556318</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H33">
-        <v>19.069441</v>
-      </c>
-      <c r="I33">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J33">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>139.6948166666666</v>
-      </c>
-      <c r="N33">
-        <v>419.0844499999999</v>
-      </c>
-      <c r="O33">
-        <v>0.2750488370661026</v>
-      </c>
-      <c r="P33">
-        <v>0.2809459811695414</v>
-      </c>
-      <c r="Q33">
-        <v>887.967354810272</v>
-      </c>
-      <c r="R33">
-        <v>7991.706193292448</v>
-      </c>
-      <c r="S33">
-        <v>0.139409052797563</v>
-      </c>
-      <c r="T33">
-        <v>0.1445992593660116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H34">
-        <v>19.069441</v>
-      </c>
-      <c r="I34">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J34">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>186.3548536666667</v>
-      </c>
-      <c r="N34">
-        <v>559.064561</v>
-      </c>
-      <c r="O34">
-        <v>0.3669190239530987</v>
-      </c>
-      <c r="P34">
-        <v>0.3747858972750336</v>
-      </c>
-      <c r="Q34">
-        <v>1184.560962353378</v>
-      </c>
-      <c r="R34">
-        <v>10661.0486611804</v>
-      </c>
-      <c r="S34">
-        <v>0.1859736406390058</v>
-      </c>
-      <c r="T34">
-        <v>0.1928974493288512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H35">
-        <v>19.069441</v>
-      </c>
-      <c r="I35">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J35">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>29.9633245</v>
-      </c>
-      <c r="N35">
-        <v>59.926649</v>
-      </c>
-      <c r="O35">
-        <v>0.05899558591371686</v>
-      </c>
-      <c r="P35">
-        <v>0.04017364805949665</v>
-      </c>
-      <c r="Q35">
-        <v>190.4612829055348</v>
-      </c>
-      <c r="R35">
-        <v>1142.767697433209</v>
-      </c>
-      <c r="S35">
-        <v>0.02990203063280692</v>
-      </c>
-      <c r="T35">
-        <v>0.02067685656599032</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H36">
-        <v>19.069441</v>
-      </c>
-      <c r="I36">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J36">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>6.253715333333333</v>
-      </c>
-      <c r="N36">
-        <v>18.761146</v>
-      </c>
-      <c r="O36">
-        <v>0.01231310631861278</v>
-      </c>
-      <c r="P36">
-        <v>0.0125771036621259</v>
-      </c>
-      <c r="Q36">
-        <v>39.75161852659844</v>
-      </c>
-      <c r="R36">
-        <v>357.7645667393859</v>
-      </c>
-      <c r="S36">
-        <v>0.006240922547369123</v>
-      </c>
-      <c r="T36">
-        <v>0.006473272431028191</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>6.356480333333333</v>
-      </c>
-      <c r="H37">
-        <v>19.069441</v>
-      </c>
-      <c r="I37">
-        <v>0.5068519986654544</v>
-      </c>
-      <c r="J37">
-        <v>0.5146870539456155</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>143.6051993333333</v>
-      </c>
-      <c r="N37">
-        <v>430.815598</v>
-      </c>
-      <c r="O37">
-        <v>0.2827480934208786</v>
-      </c>
-      <c r="P37">
-        <v>0.2888103122968479</v>
-      </c>
-      <c r="Q37">
-        <v>912.8236253267463</v>
-      </c>
-      <c r="R37">
-        <v>8215.412627940717</v>
-      </c>
-      <c r="S37">
-        <v>0.143311436269219</v>
-      </c>
-      <c r="T37">
-        <v>0.1486469287851779</v>
+        <v>0.2086037273470989</v>
       </c>
     </row>
   </sheetData>
